--- a/ProgettoDiGestioneAcquisti/report_profitto.xlsx
+++ b/ProgettoDiGestioneAcquisti/report_profitto.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>EAN</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>9147040939240</t>
+  </si>
+  <si>
+    <t>7595792084213</t>
   </si>
   <si>
     <t>Totale Profitto:</t>
@@ -74,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -109,11 +112,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="E3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
-        <v>18.03</v>
+      <c r="B3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.03</v>
       </c>
     </row>
   </sheetData>
